--- a/data/trans_bre/P45C_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.912045999673748</v>
+        <v>-2.616789161919284</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.693545889035152</v>
+        <v>-7.922087125775048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.254711707288505</v>
+        <v>-4.977254501313326</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.878883660359651</v>
+        <v>-9.488494225895163</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.0762057985879179</v>
+        <v>-0.0974662574813706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2452861857929414</v>
+        <v>-0.2227999009805707</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2231222353546123</v>
+        <v>-0.1872653804684403</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3754319720404459</v>
+        <v>-0.3449653713309155</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.698141126275422</v>
+        <v>8.519655329243159</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.243443276508451</v>
+        <v>4.479767372715424</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.075082110342202</v>
+        <v>7.471648453064056</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.670090758321241</v>
+        <v>8.092294483388507</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4147423889137061</v>
+        <v>0.4142500424519756</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1499387581300547</v>
+        <v>0.1586369134412907</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2858079531324172</v>
+        <v>0.3537560227819597</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4394947833582136</v>
+        <v>0.5106406099832231</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.536245109825348</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-7.255798588316259</v>
+        <v>-7.255798588316262</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1211965238461686</v>
@@ -749,7 +749,7 @@
         <v>0.1890208593402996</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2717895115046922</v>
+        <v>-0.2717895115046923</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.762885489479729</v>
+        <v>-6.964236316977022</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-14.16899901308669</v>
+        <v>-14.43701564071851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.107588432821509</v>
+        <v>-0.921864456295227</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-13.48169433115823</v>
+        <v>-14.32780287838608</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3030340774625244</v>
+        <v>-0.3035006160674566</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5331117145829787</v>
+        <v>-0.535222310800516</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06374230762758952</v>
+        <v>-0.04698960233241569</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4370424112055066</v>
+        <v>-0.4503157862873028</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.910717220470839</v>
+        <v>1.947359482225021</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-5.264629523403869</v>
+        <v>-5.549430930115059</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.442044135739996</v>
+        <v>8.120565634273959</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.7746580180792935</v>
+        <v>-1.094460473011686</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1018373967829282</v>
+        <v>0.1012555915952938</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2390740014886812</v>
+        <v>-0.2407326390219799</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5029100325247587</v>
+        <v>0.4911523731537503</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.03139789370211058</v>
+        <v>-0.04486569674702193</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.576088522510742</v>
+        <v>-7.299716360717263</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.321618952680283</v>
+        <v>-5.356525017880374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.841682337403835</v>
+        <v>-2.581545303701923</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.523331960561952</v>
+        <v>-9.661582539146313</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4451550353003029</v>
+        <v>-0.4343429710917044</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2940382418094521</v>
+        <v>-0.2945038735394405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2018138650306424</v>
+        <v>-0.1831704094976539</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3978787464476355</v>
+        <v>-0.4113780529646308</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02247635900470018</v>
+        <v>0.5400162407910913</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.056445150964543</v>
+        <v>3.000656636076739</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.36617719047891</v>
+        <v>4.308149058810371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.126559799965801</v>
+        <v>-0.7245329130700782</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.001950680336602434</v>
+        <v>0.04285873698288985</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2120822101429609</v>
+        <v>0.2040310881991987</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.426150337888103</v>
+        <v>0.4014189443757373</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.06126497857432353</v>
+        <v>-0.04335254865083472</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-10.89032474409745</v>
+        <v>-10.43282411899718</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.238670471609927</v>
+        <v>-9.012677920377964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.636247799008788</v>
+        <v>-4.982781330388686</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.521077239456739</v>
+        <v>-5.373278810715362</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5829640971390819</v>
+        <v>-0.5650063317434133</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4882820589451345</v>
+        <v>-0.4819096207842997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.333867202404408</v>
+        <v>-0.3454670153729585</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3042471924874758</v>
+        <v>-0.2939488621243542</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-2.051886080603798</v>
+        <v>-1.699030450792527</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.0238403612326</v>
+        <v>-1.21373854492942</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.736134657833571</v>
+        <v>2.389228113341623</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.685113835342972</v>
+        <v>1.488915033801711</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.135509635908426</v>
+        <v>-0.1273270272415097</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.07075617690965137</v>
+        <v>-0.07922758780741403</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2725659024500016</v>
+        <v>0.2281076861150018</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1238799036294092</v>
+        <v>0.1154639251014713</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.58781242335621</v>
+        <v>-6.314724776065907</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.938542088214836</v>
+        <v>-4.657622854826251</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.202920337832524</v>
+        <v>-4.432310980688409</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.261512232463082</v>
+        <v>-4.661566105839429</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5602398416706915</v>
+        <v>-0.5467586423651246</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4064135674942263</v>
+        <v>-0.3985313798322611</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3329891729969903</v>
+        <v>-0.3537870729955109</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.330494909099717</v>
+        <v>-0.3042299511410292</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.422823332663931</v>
+        <v>1.304933119012005</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.046787423712197</v>
+        <v>3.240772912742666</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.044169832466143</v>
+        <v>3.90564260167826</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.55285924542004</v>
+        <v>1.567958545218384</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1909822645786514</v>
+        <v>0.1926590028026464</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3978553322953836</v>
+        <v>0.412349130281172</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.486873197170116</v>
+        <v>0.4496374845399828</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1342353971848543</v>
+        <v>0.1347641680175359</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.33184699059782</v>
+        <v>-4.815169194391075</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.974726063090707</v>
+        <v>-6.1921579222548</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.249308182369332</v>
+        <v>-2.364986197401411</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.210286284636486</v>
+        <v>-6.222063672240831</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.596129376996454</v>
+        <v>-0.6286235657284643</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5940620766618275</v>
+        <v>-0.619998539299045</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2943968327112095</v>
+        <v>-0.3038231757036301</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.529281842971926</v>
+        <v>-0.5212074579018319</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.219554343297111</v>
+        <v>2.210658168826713</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.953989806349842</v>
+        <v>2.326816163789533</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.562814977523793</v>
+        <v>5.324056307727027</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-0.1684260176484077</v>
+        <v>-0.1637152253440967</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7635830475478563</v>
+        <v>0.7168679001243007</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.469258823755809</v>
+        <v>0.4929465832611748</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.3137945853286</v>
+        <v>1.225371949955258</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.02138206791024459</v>
+        <v>-0.01466705856749449</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-0.9930442130635188</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-2.959344063573803</v>
+        <v>-2.959344063573804</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.7570718094316313</v>
@@ -1249,7 +1249,7 @@
         <v>-0.2147943552757189</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.3868882278967122</v>
+        <v>-0.3868882278967123</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.222116988740558</v>
+        <v>-8.35472591945255</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.808034308426217</v>
+        <v>-1.799747389871565</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.349043087006313</v>
+        <v>-4.436137335666649</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.61680788862891</v>
+        <v>-5.95615902017819</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.9401547610712552</v>
+        <v>-0.9427135967320838</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3938597136940969</v>
+        <v>-0.3907103702329754</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.6667674813656338</v>
+        <v>-0.654356177516534</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.5862452185604123</v>
+        <v>-0.6104576680924302</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.143652776613628</v>
+        <v>-1.22596326846512</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.578078705481895</v>
+        <v>4.421286589394052</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.12419764878576</v>
+        <v>2.193363234723258</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.3650571995919282</v>
+        <v>-0.2659534760908287</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.2140634315119008</v>
+        <v>-0.1575530195588599</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>3.064184165437634</v>
+        <v>3.020883752081466</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8617988594583988</v>
+        <v>0.8853114550444611</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.05995524115098202</v>
+        <v>-0.02040957009083706</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>0.1050984496961033</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-3.636440356200849</v>
+        <v>-3.636440356200846</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.2088111782295789</v>
@@ -1349,7 +1349,7 @@
         <v>0.007804951518200707</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.2143002327480279</v>
+        <v>-0.2143002327480278</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-4.851623507770142</v>
+        <v>-5.021382432836167</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-5.875903419461423</v>
+        <v>-5.850903177993096</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.643632501214412</v>
+        <v>-1.512609113329353</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-5.440216593813236</v>
+        <v>-5.755339884873367</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2912893312226296</v>
+        <v>-0.3014101849602978</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3140247252926021</v>
+        <v>-0.317866624033761</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1128991859001116</v>
+        <v>-0.106700585272009</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2966452566876477</v>
+        <v>-0.3115835930934575</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-1.578288845169964</v>
+        <v>-1.616774294195156</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-2.497543095141932</v>
+        <v>-2.314586399091741</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.696895342952338</v>
+        <v>1.890885002471636</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-1.752067290834397</v>
+        <v>-1.948502938254375</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1061488201614249</v>
+        <v>-0.1081968963647896</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1488675321868747</v>
+        <v>-0.1394414826285828</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1340205082448734</v>
+        <v>0.1533330154256872</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1097377827886708</v>
+        <v>-0.123924179962934</v>
       </c>
     </row>
     <row r="28">
